--- a/docs/StructureDefinition-structuredefinition-hl7au-vsd-1.xlsx
+++ b/docs/StructureDefinition-structuredefinition-hl7au-vsd-1.xlsx
@@ -153,7 +153,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}vsd-0:Name should be usable as an identifier for the module by machine processing applications such as code generation {name.matches('[A-Z]([A-Za-z0-9_]){0,254}')}hl7au-vsd-base-01:The version number is in semantic versioning format ('n.n.n'), with the major verion number at least 1 {version.matches('^[0-9]{1,2}[.][0-9]{1,2}[.][0-9]{1,2}$')}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}vsd-0:Name should be usable as an identifier for the module by machine processing applications such as code generation {name.matches('[A-Z]([A-Za-z0-9_]){0,254}')}hl7au-vsd-base-01:The version number is in semantic versioning format ('n.n.n'), with the major version number at least 1 {version.matches('^[0-9]{1,2}[.][0-9]{1,2}[.][0-9]{1,2}$')}</t>
   </si>
   <si>
     <t>N/A</t>

--- a/docs/StructureDefinition-structuredefinition-hl7au-vsd-1.xlsx
+++ b/docs/StructureDefinition-structuredefinition-hl7au-vsd-1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4343" uniqueCount="605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4343" uniqueCount="606">
   <si>
     <t>Path</t>
   </si>
@@ -153,7 +153,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}vsd-0:Name should be usable as an identifier for the module by machine processing applications such as code generation {name.matches('[A-Z]([A-Za-z0-9_]){0,254}')}hl7au-vsd-base-01:The version number is in semantic versioning format ('n.n.n'), with the major version number at least 1 {version.matches('^[0-9]{1,2}[.][0-9]{1,2}[.][0-9]{1,2}$')}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}vsd-0:Name should be usable as an identifier for the module by machine processing applications such as code generation {name.matches('[A-Z]([A-Za-z0-9_]){0,254}')}</t>
   </si>
   <si>
     <t>N/A</t>
@@ -724,6 +724,10 @@
   </si>
   <si>
     <t>There may be different value set instances that have the same identifier but different versions.  The version can be appended to the url in a reference to allow a reference to a particular business version of the value set with the format [url]|[version].</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+hl7au-vsd-base-01:The version number is in semantic versioning format ('n.n.n'), with the major version number at least 1 {matches('^([1-9]{1,2})[.]([0-9]{1}|[1-9]{1}[0-9]{1})[.]([0-9]{1}|[1-9]{1}[0-9]{1})$')}</t>
   </si>
   <si>
     <t>Definition.version</t>
@@ -5301,16 +5305,16 @@
         <v>40</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>60</v>
+        <v>227</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>40</v>
@@ -5318,7 +5322,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5344,16 +5348,16 @@
         <v>50</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>40</v>
@@ -5402,7 +5406,7 @@
         <v>40</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>41</v>
@@ -5411,7 +5415,7 @@
         <v>48</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>60</v>
@@ -5431,7 +5435,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5457,13 +5461,13 @@
         <v>50</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5513,7 +5517,7 @@
         <v>40</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>41</v>
@@ -5531,7 +5535,7 @@
         <v>40</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>40</v>
@@ -5542,7 +5546,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5568,13 +5572,13 @@
         <v>125</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -5603,10 +5607,10 @@
         <v>179</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>40</v>
@@ -5624,7 +5628,7 @@
         <v>40</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>48</v>
@@ -5642,10 +5646,10 @@
         <v>40</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>40</v>
@@ -5653,7 +5657,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5676,19 +5680,19 @@
         <v>49</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>40</v>
@@ -5737,7 +5741,7 @@
         <v>40</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>41</v>
@@ -5755,10 +5759,10 @@
         <v>40</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>40</v>
@@ -5766,11 +5770,11 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -5789,16 +5793,16 @@
         <v>49</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5848,7 +5852,7 @@
         <v>40</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>41</v>
@@ -5866,10 +5870,10 @@
         <v>46</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>40</v>
@@ -5877,7 +5881,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5903,16 +5907,16 @@
         <v>50</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>40</v>
@@ -5961,7 +5965,7 @@
         <v>40</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>41</v>
@@ -5973,16 +5977,16 @@
         <v>40</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>40</v>
@@ -5990,7 +5994,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6013,16 +6017,16 @@
         <v>49</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -6072,7 +6076,7 @@
         <v>40</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>41</v>
@@ -6090,7 +6094,7 @@
         <v>40</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>40</v>
@@ -6101,7 +6105,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6210,7 +6214,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6321,7 +6325,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6347,13 +6351,13 @@
         <v>50</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6403,7 +6407,7 @@
         <v>40</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>41</v>
@@ -6432,7 +6436,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6455,13 +6459,13 @@
         <v>49</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6512,7 +6516,7 @@
         <v>40</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>41</v>
@@ -6541,7 +6545,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6650,7 +6654,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6761,7 +6765,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6787,10 +6791,10 @@
         <v>125</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6799,7 +6803,7 @@
       </c>
       <c r="P43" s="2"/>
       <c r="Q43" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="R43" t="s" s="2">
         <v>40</v>
@@ -6820,10 +6824,10 @@
         <v>179</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>40</v>
@@ -6841,7 +6845,7 @@
         <v>40</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>41</v>
@@ -6850,13 +6854,13 @@
         <v>48</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>60</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>40</v>
@@ -6870,7 +6874,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6896,23 +6900,23 @@
         <v>50</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P44" s="2"/>
       <c r="Q44" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="R44" t="s" s="2">
         <v>40</v>
@@ -6954,7 +6958,7 @@
         <v>40</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>41</v>
@@ -6969,7 +6973,7 @@
         <v>60</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>40</v>
@@ -6983,7 +6987,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7009,23 +7013,23 @@
         <v>125</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P45" s="2"/>
       <c r="Q45" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="R45" t="s" s="2">
         <v>40</v>
@@ -7046,10 +7050,10 @@
         <v>179</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>40</v>
@@ -7067,7 +7071,7 @@
         <v>40</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>41</v>
@@ -7082,7 +7086,7 @@
         <v>60</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>40</v>
@@ -7096,7 +7100,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7119,16 +7123,16 @@
         <v>49</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -7178,7 +7182,7 @@
         <v>40</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>41</v>
@@ -7207,7 +7211,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7233,10 +7237,10 @@
         <v>211</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -7287,7 +7291,7 @@
         <v>40</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>41</v>
@@ -7302,7 +7306,7 @@
         <v>60</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>40</v>
@@ -7316,11 +7320,11 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -7339,16 +7343,16 @@
         <v>40</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -7398,7 +7402,7 @@
         <v>40</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>41</v>
@@ -7416,7 +7420,7 @@
         <v>46</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>40</v>
@@ -7427,7 +7431,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7450,19 +7454,19 @@
         <v>49</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>40</v>
@@ -7511,7 +7515,7 @@
         <v>40</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>41</v>
@@ -7529,7 +7533,7 @@
         <v>40</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>40</v>
@@ -7540,7 +7544,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7566,13 +7570,13 @@
         <v>185</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -7601,10 +7605,10 @@
         <v>107</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>40</v>
@@ -7622,7 +7626,7 @@
         <v>40</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>41</v>
@@ -7640,7 +7644,7 @@
         <v>40</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>40</v>
@@ -7651,7 +7655,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7760,7 +7764,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7871,7 +7875,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7897,16 +7901,16 @@
         <v>103</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>40</v>
@@ -7955,7 +7959,7 @@
         <v>40</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>41</v>
@@ -7970,7 +7974,7 @@
         <v>60</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>40</v>
@@ -7984,7 +7988,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8093,7 +8097,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8204,7 +8208,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8230,23 +8234,23 @@
         <v>90</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P56" s="2"/>
       <c r="Q56" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="R56" t="s" s="2">
         <v>40</v>
@@ -8288,7 +8292,7 @@
         <v>40</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>41</v>
@@ -8303,7 +8307,7 @@
         <v>60</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>40</v>
@@ -8317,7 +8321,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8343,13 +8347,13 @@
         <v>50</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -8399,7 +8403,7 @@
         <v>40</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>41</v>
@@ -8414,7 +8418,7 @@
         <v>60</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>40</v>
@@ -8428,7 +8432,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8454,21 +8458,21 @@
         <v>125</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P58" s="2"/>
       <c r="Q58" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="R58" t="s" s="2">
         <v>40</v>
@@ -8510,7 +8514,7 @@
         <v>40</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>41</v>
@@ -8525,7 +8529,7 @@
         <v>60</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>40</v>
@@ -8539,7 +8543,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8565,14 +8569,14 @@
         <v>50</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>40</v>
@@ -8621,7 +8625,7 @@
         <v>40</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>41</v>
@@ -8636,7 +8640,7 @@
         <v>60</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>40</v>
@@ -8650,7 +8654,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8673,19 +8677,19 @@
         <v>49</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>40</v>
@@ -8734,7 +8738,7 @@
         <v>40</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>41</v>
@@ -8749,7 +8753,7 @@
         <v>60</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>40</v>
@@ -8763,7 +8767,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8789,16 +8793,16 @@
         <v>50</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>40</v>
@@ -8847,7 +8851,7 @@
         <v>40</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>41</v>
@@ -8862,7 +8866,7 @@
         <v>60</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>40</v>
@@ -8876,7 +8880,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8899,16 +8903,16 @@
         <v>49</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -8958,7 +8962,7 @@
         <v>40</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>41</v>
@@ -8987,7 +8991,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9010,16 +9014,16 @@
         <v>40</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -9069,7 +9073,7 @@
         <v>40</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>41</v>
@@ -9087,10 +9091,10 @@
         <v>40</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>171</v>
@@ -9098,11 +9102,11 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -9121,19 +9125,19 @@
         <v>40</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>40</v>
@@ -9182,7 +9186,7 @@
         <v>40</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>41</v>
@@ -9194,13 +9198,13 @@
         <v>40</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>40</v>
@@ -9211,11 +9215,11 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
@@ -9234,13 +9238,13 @@
         <v>40</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -9291,7 +9295,7 @@
         <v>40</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>41</v>
@@ -9320,7 +9324,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9429,7 +9433,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9540,11 +9544,11 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
@@ -9566,10 +9570,10 @@
         <v>68</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M68" t="s" s="2">
         <v>71</v>
@@ -9624,7 +9628,7 @@
         <v>40</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>41</v>
@@ -9653,7 +9657,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9676,16 +9680,16 @@
         <v>49</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
@@ -9735,7 +9739,7 @@
         <v>40</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>41</v>
@@ -9756,7 +9760,7 @@
         <v>40</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>40</v>
@@ -9764,7 +9768,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9787,16 +9791,16 @@
         <v>49</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
@@ -9846,7 +9850,7 @@
         <v>40</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>41</v>
@@ -9875,7 +9879,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9898,16 +9902,16 @@
         <v>49</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
@@ -9957,7 +9961,7 @@
         <v>40</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>48</v>
@@ -9969,7 +9973,7 @@
         <v>40</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>46</v>
@@ -9986,7 +9990,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10095,7 +10099,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10206,11 +10210,11 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -10232,10 +10236,10 @@
         <v>68</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M74" t="s" s="2">
         <v>71</v>
@@ -10290,7 +10294,7 @@
         <v>40</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>41</v>
@@ -10319,7 +10323,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10345,13 +10349,13 @@
         <v>90</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
@@ -10401,7 +10405,7 @@
         <v>40</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>41</v>
@@ -10410,7 +10414,7 @@
         <v>48</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>60</v>
@@ -10430,7 +10434,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10456,13 +10460,13 @@
         <v>50</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
@@ -10512,7 +10516,7 @@
         <v>40</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>41</v>
@@ -10541,7 +10545,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10564,16 +10568,16 @@
         <v>40</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
@@ -10623,7 +10627,7 @@
         <v>40</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>41</v>
@@ -10632,7 +10636,7 @@
         <v>42</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>60</v>
@@ -10652,7 +10656,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10761,7 +10765,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10872,11 +10876,11 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
@@ -10898,10 +10902,10 @@
         <v>68</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M80" t="s" s="2">
         <v>71</v>
@@ -10956,7 +10960,7 @@
         <v>40</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>41</v>
@@ -10985,7 +10989,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11011,13 +11015,13 @@
         <v>125</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
@@ -11067,7 +11071,7 @@
         <v>40</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>48</v>
@@ -11096,7 +11100,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11122,13 +11126,13 @@
         <v>50</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
@@ -11178,7 +11182,7 @@
         <v>40</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>41</v>
@@ -11207,7 +11211,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11230,16 +11234,16 @@
         <v>40</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
@@ -11289,7 +11293,7 @@
         <v>40</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>41</v>
@@ -11318,7 +11322,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11427,7 +11431,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11538,11 +11542,11 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
@@ -11564,10 +11568,10 @@
         <v>68</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M86" t="s" s="2">
         <v>71</v>
@@ -11622,7 +11626,7 @@
         <v>40</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>41</v>
@@ -11651,7 +11655,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -11677,13 +11681,13 @@
         <v>125</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
@@ -11733,7 +11737,7 @@
         <v>40</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>41</v>
@@ -11762,7 +11766,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -11788,13 +11792,13 @@
         <v>103</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
@@ -11823,10 +11827,10 @@
         <v>107</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="Z88" t="s" s="2">
         <v>40</v>
@@ -11844,7 +11848,7 @@
         <v>40</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>41</v>
@@ -11873,7 +11877,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -11899,10 +11903,10 @@
         <v>50</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
@@ -11953,7 +11957,7 @@
         <v>40</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>48</v>
@@ -11982,7 +11986,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12005,16 +12009,16 @@
         <v>49</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
@@ -12064,7 +12068,7 @@
         <v>40</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>41</v>
@@ -12073,7 +12077,7 @@
         <v>42</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>60</v>
@@ -12093,7 +12097,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12202,7 +12206,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12313,11 +12317,11 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
@@ -12339,10 +12343,10 @@
         <v>68</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M93" t="s" s="2">
         <v>71</v>
@@ -12397,7 +12401,7 @@
         <v>40</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>41</v>
@@ -12426,7 +12430,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -12452,10 +12456,10 @@
         <v>125</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="M94" s="2"/>
       <c r="N94" s="2"/>
@@ -12506,7 +12510,7 @@
         <v>40</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>48</v>
@@ -12535,7 +12539,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -12561,13 +12565,13 @@
         <v>125</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
@@ -12596,10 +12600,10 @@
         <v>179</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="Z95" t="s" s="2">
         <v>40</v>
@@ -12617,7 +12621,7 @@
         <v>40</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>48</v>
@@ -12646,7 +12650,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -12672,13 +12676,13 @@
         <v>50</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
@@ -12728,7 +12732,7 @@
         <v>40</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>48</v>
@@ -12757,7 +12761,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -12780,16 +12784,16 @@
         <v>49</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" t="s" s="2">
@@ -12839,7 +12843,7 @@
         <v>40</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>41</v>
@@ -12848,7 +12852,7 @@
         <v>42</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AI97" t="s" s="2">
         <v>60</v>
@@ -12868,7 +12872,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -12894,13 +12898,13 @@
         <v>40</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
@@ -12950,7 +12954,7 @@
         <v>40</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>41</v>
@@ -12959,7 +12963,7 @@
         <v>42</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AI98" t="s" s="2">
         <v>60</v>
@@ -12979,7 +12983,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -13002,16 +13006,16 @@
         <v>40</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" t="s" s="2">
@@ -13061,7 +13065,7 @@
         <v>40</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>41</v>
@@ -13090,7 +13094,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -13199,7 +13203,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -13310,11 +13314,11 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" t="s" s="2">
@@ -13336,10 +13340,10 @@
         <v>68</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M102" t="s" s="2">
         <v>71</v>
@@ -13394,7 +13398,7 @@
         <v>40</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>41</v>
@@ -13423,7 +13427,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -13449,13 +13453,13 @@
         <v>90</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" t="s" s="2">
@@ -13505,7 +13509,7 @@
         <v>40</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>41</v>
@@ -13534,7 +13538,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -13557,16 +13561,16 @@
         <v>40</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" t="s" s="2">
@@ -13616,7 +13620,7 @@
         <v>40</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>48</v>
@@ -13645,7 +13649,7 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -13668,16 +13672,16 @@
         <v>40</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" t="s" s="2">
@@ -13727,7 +13731,7 @@
         <v>40</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>41</v>
@@ -13756,7 +13760,7 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -13779,23 +13783,23 @@
         <v>40</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P106" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="Q106" t="s" s="2">
         <v>40</v>
@@ -13840,7 +13844,7 @@
         <v>40</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>41</v>
@@ -13869,7 +13873,7 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -13892,16 +13896,16 @@
         <v>40</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" t="s" s="2">
@@ -13951,7 +13955,7 @@
         <v>40</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>41</v>
@@ -13980,7 +13984,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -14089,7 +14093,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -14200,11 +14204,11 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" t="s" s="2">
@@ -14226,10 +14230,10 @@
         <v>68</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M110" t="s" s="2">
         <v>71</v>
@@ -14284,7 +14288,7 @@
         <v>40</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>41</v>
@@ -14313,7 +14317,7 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -14339,13 +14343,13 @@
         <v>50</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="N111" s="2"/>
       <c r="O111" t="s" s="2">
@@ -14395,7 +14399,7 @@
         <v>40</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>48</v>
@@ -14424,7 +14428,7 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -14447,13 +14451,13 @@
         <v>40</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="M112" s="2"/>
       <c r="N112" s="2"/>
@@ -14504,7 +14508,7 @@
         <v>40</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>41</v>
@@ -14533,7 +14537,7 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -14556,13 +14560,13 @@
         <v>40</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="M113" s="2"/>
       <c r="N113" s="2"/>
@@ -14613,7 +14617,7 @@
         <v>40</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>41</v>
@@ -14625,7 +14629,7 @@
         <v>40</v>
       </c>
       <c r="AI113" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="AJ113" t="s" s="2">
         <v>40</v>
@@ -14642,7 +14646,7 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -14751,7 +14755,7 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -14862,11 +14866,11 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D116" s="2"/>
       <c r="E116" t="s" s="2">
@@ -14888,10 +14892,10 @@
         <v>68</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M116" t="s" s="2">
         <v>71</v>
@@ -14946,7 +14950,7 @@
         <v>40</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>41</v>
@@ -14975,7 +14979,7 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -15001,10 +15005,10 @@
         <v>90</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="M117" s="2"/>
       <c r="N117" s="2"/>
@@ -15055,7 +15059,7 @@
         <v>40</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>41</v>
@@ -15084,7 +15088,7 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -15107,23 +15111,23 @@
         <v>40</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="N118" s="2"/>
       <c r="O118" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P118" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="Q118" t="s" s="2">
         <v>40</v>
@@ -15168,7 +15172,7 @@
         <v>40</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>41</v>
@@ -15197,7 +15201,7 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -15220,16 +15224,16 @@
         <v>40</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="N119" s="2"/>
       <c r="O119" t="s" s="2">
@@ -15279,7 +15283,7 @@
         <v>40</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>41</v>
@@ -15308,7 +15312,7 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -15334,13 +15338,13 @@
         <v>50</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="N120" s="2"/>
       <c r="O120" t="s" s="2">
@@ -15390,7 +15394,7 @@
         <v>40</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>41</v>
@@ -15419,7 +15423,7 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -15445,10 +15449,10 @@
         <v>125</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="M121" s="2"/>
       <c r="N121" s="2"/>
@@ -15499,7 +15503,7 @@
         <v>40</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>41</v>
@@ -15508,7 +15512,7 @@
         <v>48</v>
       </c>
       <c r="AH121" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="AI121" t="s" s="2">
         <v>60</v>
@@ -15528,7 +15532,7 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -15554,10 +15558,10 @@
         <v>50</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="M122" s="2"/>
       <c r="N122" s="2"/>
@@ -15608,16 +15612,16 @@
         <v>40</v>
       </c>
       <c r="AE122" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="AF122" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG122" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH122" t="s" s="2">
         <v>594</v>
-      </c>
-      <c r="AF122" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG122" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH122" t="s" s="2">
-        <v>593</v>
       </c>
       <c r="AI122" t="s" s="2">
         <v>60</v>
@@ -15637,7 +15641,7 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -15663,13 +15667,13 @@
         <v>40</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="N123" s="2"/>
       <c r="O123" t="s" s="2">
@@ -15719,7 +15723,7 @@
         <v>40</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>41</v>
@@ -15748,7 +15752,7 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -15774,13 +15778,13 @@
         <v>40</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="N124" s="2"/>
       <c r="O124" t="s" s="2">
@@ -15830,7 +15834,7 @@
         <v>40</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>41</v>

--- a/docs/StructureDefinition-structuredefinition-hl7au-vsd-1.xlsx
+++ b/docs/StructureDefinition-structuredefinition-hl7au-vsd-1.xlsx
@@ -153,7 +153,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}vsd-0:Name should be usable as an identifier for the module by machine processing applications such as code generation {name.matches('[A-Z]([A-Za-z0-9_]){0,254}')}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}vsd-0:Name should be usable as an identifier for the module by machine processing applications such as code generation {name.matches('[A-Z]([A-Za-z0-9_]){0,254}')}hl7au-vsd-base-05:The url must end with the id value {url.replace('http://terminology.hl7.org.au/ValueSet/','') = id}</t>
   </si>
   <si>
     <t>N/A</t>

--- a/docs/StructureDefinition-structuredefinition-hl7au-vsd-1.xlsx
+++ b/docs/StructureDefinition-structuredefinition-hl7au-vsd-1.xlsx
@@ -153,7 +153,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}vsd-0:Name should be usable as an identifier for the module by machine processing applications such as code generation {name.matches('[A-Z]([A-Za-z0-9_]){0,254}')}hl7au-vsd-base-05:The url must end with the id value {url.replace('http://terminology.hl7.org.au/ValueSet/','') = id}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}vsd-0:Name should be usable as an identifier for the module by machine processing applications such as code generation {name.matches('[A-Z]([A-Za-z0-9_]){0,254}')}hl7au-vsd-base-05:The url should end with the id value, unless it is an AU extended ValueSet {url.replace('http://terminology.hl7.org.au/ValueSet/','') = id}</t>
   </si>
   <si>
     <t>N/A</t>

--- a/docs/StructureDefinition-structuredefinition-hl7au-vsd-1.xlsx
+++ b/docs/StructureDefinition-structuredefinition-hl7au-vsd-1.xlsx
@@ -2318,44 +2318,44 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="61.71484375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="74.3828125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="98.61328125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="51.0" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="53.6328125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="102.6171875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="48.0546875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="48.05859375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
